--- a/4-FerramentasDeDados/17. Validação de Dados - Avisos e Informações - Material(1).xlsx
+++ b/4-FerramentasDeDados/17. Validação de Dados - Avisos e Informações - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 7 - Ferramentas de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\4-FerramentasDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C740BA-6949-4CBA-B312-CF1D59B75C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46157AB9-D49C-42C0-B148-6F8D26DCD1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" xr2:uid="{0D445F65-54A1-41E5-865A-2279466CCF1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="1" xr2:uid="{0D445F65-54A1-41E5-865A-2279466CCF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -357,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -503,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,17 +655,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D11AF4-2C8D-4548-9F11-4E03C4C35DE5}">
   <dimension ref="A1:I7089"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="6" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="6" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -740,7 +740,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -748,7 +748,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -756,7 +756,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -764,7 +764,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -772,7 +772,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -780,7 +780,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -788,7 +788,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -796,7 +796,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -804,7 +804,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -812,7 +812,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="7089" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7089" s="1"/>
     </row>
   </sheetData>
@@ -825,14 +825,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F53E3B8-6343-4ACB-9A1F-E8EA93C2EABE}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.21875" customWidth="1"/>
+    <col min="1" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -849,7 +849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -866,7 +866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -883,7 +883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -934,7 +934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
@@ -951,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>58</v>
       </c>
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
@@ -985,7 +985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
@@ -1019,103 +1019,103 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
   </sheetData>
@@ -1129,12 +1129,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.21875" customWidth="1"/>
+    <col min="1" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>65</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
     </row>
